--- a/хиКритерии.xlsx
+++ b/хиКритерии.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мой компьютер\PycharmProjects\pythonProject8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9F06FA-CDE7-4441-95BA-0E4C8D365A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29A9AC4-EF0F-426C-967D-D1E065EC94B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="2310" windowWidth="16515" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -338,10 +338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,149 +358,79 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>9.49</v>
+        <v>12.59</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>12.59</v>
+        <v>15.51</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>12.59</v>
+        <v>18.38</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>15.51</v>
+        <v>21.03</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>15.51</v>
+        <v>23.68</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>18.38</v>
+        <v>26.3</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>18.38</v>
+        <v>28.87</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>21.03</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>21.03</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>23.68</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1">
-        <v>23.68</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>26.3</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>26.3</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1">
-        <v>28.87</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
